--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>kpi_3</t>
+  </si>
+  <si>
+    <t>cell_index</t>
   </si>
 </sst>
 </file>
@@ -357,193 +360,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>123</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>342</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>123</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2432</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>232</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>242</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2342</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>234</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>242</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>45</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2424</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>5457</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>234</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>45645</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>234324</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>55.23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>4564</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>234</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>4564</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2342</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1233245</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>456</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>243</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>232323.2323</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>456</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>21.2</v>
       </c>
     </row>
